--- a/result.xlsx
+++ b/result.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>farmer</t>
   </si>
@@ -104,12 +103,42 @@
   <si>
     <t>Average</t>
   </si>
+  <si>
+    <t>Bad Games</t>
+  </si>
+  <si>
+    <t>Good Games</t>
+  </si>
+  <si>
+    <t>F2B: Average of Bad games</t>
+  </si>
+  <si>
+    <t>F2BG: Average of Good games</t>
+  </si>
+  <si>
+    <t>F1A:Average of Figure I</t>
+  </si>
+  <si>
+    <t>Difference between F1 and F2B</t>
+  </si>
+  <si>
+    <t>Difference between F1 and F2G</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item name </t>
+  </si>
+  <si>
+    <t>Difference between F2B and F2G</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +153,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -154,6 +189,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,15 +476,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:V78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="8" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="6" bestFit="1" customWidth="1"/>
@@ -582,394 +624,456 @@
         <v>5</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M28" si="0">AVERAGE(C4:L4)</f>
+        <f t="shared" ref="M4:M22" si="0">AVERAGE(C4:L4)</f>
         <v>4.3</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" t="s">
-        <v>14</v>
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>3.4</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>6.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" t="s">
-        <v>14</v>
+      <c r="A9" s="2"/>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <v>11</v>
+      </c>
+      <c r="J9">
+        <v>11</v>
+      </c>
+      <c r="K9">
+        <v>12</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M10">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>5</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G11">
         <v>6</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J11">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K11">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M11">
         <f t="shared" si="0"/>
-        <v>8.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E12">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G12">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J12">
+        <v>7</v>
+      </c>
+      <c r="K12">
         <v>10</v>
       </c>
-      <c r="K12">
-        <v>18</v>
-      </c>
       <c r="L12">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M12">
         <f t="shared" si="0"/>
-        <v>12.1</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" t="s">
-        <v>14</v>
+      <c r="A13" s="2"/>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>8</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G14">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I14">
         <v>6</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K14">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M14">
         <f t="shared" si="0"/>
-        <v>3.7</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>18</v>
+      </c>
+      <c r="G15">
         <v>11</v>
       </c>
-      <c r="E15">
-        <v>11</v>
-      </c>
-      <c r="F15">
-        <v>10</v>
-      </c>
-      <c r="G15">
-        <v>10</v>
-      </c>
       <c r="H15">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="I15">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J15">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="K15">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L15">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="M15">
         <f t="shared" si="0"/>
-        <v>8.1999999999999993</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -978,161 +1082,183 @@
         <v>13</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G16">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J16">
         <v>8</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M16">
         <f t="shared" si="0"/>
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>4</v>
-      </c>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F18">
         <v>8</v>
       </c>
       <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18">
+        <v>13</v>
+      </c>
+      <c r="I18">
         <v>10</v>
       </c>
-      <c r="H18">
-        <v>9</v>
-      </c>
-      <c r="I18">
-        <v>6</v>
-      </c>
       <c r="J18">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K18">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M18">
         <f t="shared" si="0"/>
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
         <v>12</v>
       </c>
-      <c r="C19">
-        <v>21</v>
-      </c>
-      <c r="D19">
-        <v>14</v>
-      </c>
-      <c r="E19">
-        <v>7</v>
-      </c>
-      <c r="F19">
-        <v>18</v>
-      </c>
       <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19">
         <v>11</v>
       </c>
-      <c r="H19">
-        <v>19</v>
-      </c>
       <c r="I19">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J19">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="K19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L19">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M19">
         <f t="shared" si="0"/>
-        <v>15.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C20">
         <v>5</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F20">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H20">
         <v>6</v>
@@ -1141,332 +1267,3490 @@
         <v>7</v>
       </c>
       <c r="J20">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K20">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M20">
         <f t="shared" si="0"/>
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G21" t="s">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
+      </c>
+      <c r="F21">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <v>16</v>
+      </c>
+      <c r="H21">
+        <v>16</v>
+      </c>
+      <c r="I21">
+        <v>22</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <v>9</v>
+      </c>
+      <c r="L21">
+        <v>20</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>23</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
         <v>14</v>
       </c>
-      <c r="H21" t="s">
+      <c r="F22">
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <v>20</v>
+      </c>
+      <c r="H22">
         <v>14</v>
       </c>
-      <c r="I21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-      <c r="H22">
-        <v>3</v>
-      </c>
       <c r="I22">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="K22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M22">
         <f t="shared" si="0"/>
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>324</v>
+      </c>
+      <c r="B25" s="3">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>9</v>
+      </c>
+      <c r="F25" s="3">
+        <v>4</v>
+      </c>
+      <c r="G25" s="3">
+        <v>4</v>
+      </c>
+      <c r="H25" s="3">
+        <v>8</v>
+      </c>
+      <c r="I25" s="3">
+        <v>5</v>
+      </c>
+      <c r="J25" s="3">
+        <v>2</v>
+      </c>
+      <c r="K25" s="3">
+        <v>3</v>
+      </c>
+      <c r="L25" s="3">
+        <v>5</v>
+      </c>
+      <c r="M25" s="3">
+        <v>8</v>
+      </c>
+      <c r="N25" s="3">
+        <v>8</v>
+      </c>
+      <c r="O25" s="3">
+        <v>18</v>
+      </c>
+      <c r="P25" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>4</v>
+      </c>
+      <c r="R25" s="3">
+        <v>6</v>
+      </c>
+      <c r="S25" s="3">
+        <v>7</v>
+      </c>
+      <c r="T25" s="3">
+        <v>8</v>
+      </c>
+      <c r="U25" s="3">
+        <v>20</v>
+      </c>
+      <c r="V25" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>73</v>
+      </c>
+      <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>9</v>
+      </c>
+      <c r="F26" s="3">
+        <v>4</v>
+      </c>
+      <c r="G26" s="3">
+        <v>4</v>
+      </c>
+      <c r="H26" s="3">
+        <v>12</v>
+      </c>
+      <c r="I26" s="3">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2</v>
+      </c>
+      <c r="K26" s="3">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
+        <v>8</v>
+      </c>
+      <c r="N26" s="3">
+        <v>9</v>
+      </c>
+      <c r="O26" s="3">
+        <v>18</v>
+      </c>
+      <c r="P26" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>4</v>
+      </c>
+      <c r="R26" s="3">
+        <v>6</v>
+      </c>
+      <c r="S26" s="3">
+        <v>7</v>
+      </c>
+      <c r="T26" s="3">
+        <v>8</v>
+      </c>
+      <c r="U26" s="3">
+        <v>20</v>
+      </c>
+      <c r="V26" s="3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>73</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="H29">
+        <v>12</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>5</v>
+      </c>
+      <c r="M29">
+        <v>8</v>
+      </c>
+      <c r="N29">
+        <v>9</v>
+      </c>
+      <c r="O29">
+        <v>18</v>
+      </c>
+      <c r="P29">
+        <v>3</v>
+      </c>
+      <c r="Q29">
+        <v>4</v>
+      </c>
+      <c r="R29">
+        <v>6</v>
+      </c>
+      <c r="S29">
+        <v>7</v>
+      </c>
+      <c r="T29">
+        <v>8</v>
+      </c>
+      <c r="U29">
+        <v>20</v>
+      </c>
+      <c r="V29">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>226</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>9</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <v>12</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="J30">
+        <v>6</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>5</v>
+      </c>
+      <c r="M30">
+        <v>8</v>
+      </c>
+      <c r="N30">
+        <v>9</v>
+      </c>
+      <c r="O30">
+        <v>9</v>
+      </c>
+      <c r="P30">
+        <v>3</v>
+      </c>
+      <c r="Q30">
+        <v>4</v>
+      </c>
+      <c r="R30">
+        <v>6</v>
+      </c>
+      <c r="S30">
+        <v>7</v>
+      </c>
+      <c r="T30">
+        <v>8</v>
+      </c>
+      <c r="U30">
+        <v>12</v>
+      </c>
+      <c r="V30">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>720</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <v>12</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <v>7</v>
+      </c>
+      <c r="K31">
+        <v>5</v>
+      </c>
+      <c r="L31">
+        <v>5</v>
+      </c>
+      <c r="M31">
+        <v>9</v>
+      </c>
+      <c r="N31">
+        <v>9</v>
+      </c>
+      <c r="O31">
+        <v>9</v>
+      </c>
+      <c r="P31">
+        <v>3</v>
+      </c>
+      <c r="Q31">
+        <v>7</v>
+      </c>
+      <c r="R31">
+        <v>6</v>
+      </c>
+      <c r="S31">
+        <v>7</v>
+      </c>
+      <c r="T31">
+        <v>8</v>
+      </c>
+      <c r="U31">
+        <v>13</v>
+      </c>
+      <c r="V31">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>127</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <v>16</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+      <c r="J32">
+        <v>6</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>5</v>
+      </c>
+      <c r="M32">
+        <v>8</v>
+      </c>
+      <c r="N32">
+        <v>18</v>
+      </c>
+      <c r="O32">
+        <v>23</v>
+      </c>
+      <c r="P32">
+        <v>3</v>
+      </c>
+      <c r="Q32">
+        <v>7</v>
+      </c>
+      <c r="R32">
+        <v>7</v>
+      </c>
+      <c r="S32">
+        <v>7</v>
+      </c>
+      <c r="T32">
+        <v>16</v>
+      </c>
+      <c r="U32">
+        <v>13</v>
+      </c>
+      <c r="V32">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>271</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>9</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <v>12</v>
+      </c>
+      <c r="I33">
+        <v>5</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>5</v>
+      </c>
+      <c r="M33">
+        <v>8</v>
+      </c>
+      <c r="N33">
+        <v>9</v>
+      </c>
+      <c r="O33">
+        <v>18</v>
+      </c>
+      <c r="P33">
+        <v>3</v>
+      </c>
+      <c r="Q33">
+        <v>4</v>
+      </c>
+      <c r="R33">
+        <v>6</v>
+      </c>
+      <c r="S33">
+        <v>7</v>
+      </c>
+      <c r="T33">
+        <v>8</v>
+      </c>
+      <c r="U33">
+        <v>20</v>
+      </c>
+      <c r="V33">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <f xml:space="preserve"> AVERAGE(B29:B33)</f>
+        <v>3.4</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:U34" si="1" xml:space="preserve"> AVERAGE(C29:C33)</f>
+        <v>4.8</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>12.8</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>3.4</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="1"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="1"/>
+        <v>10.8</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="1"/>
+        <v>15.4</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="1"/>
+        <v>5.2</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="1"/>
+        <v>6.2</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="1"/>
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>823</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>9</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <v>12</v>
+      </c>
+      <c r="I36">
+        <v>5</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>5</v>
+      </c>
+      <c r="M36">
+        <v>8</v>
+      </c>
+      <c r="N36">
+        <v>9</v>
+      </c>
+      <c r="O36">
+        <v>18</v>
+      </c>
+      <c r="P36">
+        <v>3</v>
+      </c>
+      <c r="Q36">
+        <v>4</v>
+      </c>
+      <c r="R36">
+        <v>6</v>
+      </c>
+      <c r="S36">
+        <v>7</v>
+      </c>
+      <c r="T36">
+        <v>8</v>
+      </c>
+      <c r="U36">
+        <v>20</v>
+      </c>
+      <c r="V36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>803</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>9</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>8</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+      <c r="J37">
+        <v>5</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>5</v>
+      </c>
+      <c r="M37">
+        <v>8</v>
+      </c>
+      <c r="N37">
+        <v>11</v>
+      </c>
+      <c r="O37">
+        <v>18</v>
+      </c>
+      <c r="P37">
+        <v>3</v>
+      </c>
+      <c r="Q37">
+        <v>8</v>
+      </c>
+      <c r="R37">
+        <v>6</v>
+      </c>
+      <c r="S37">
+        <v>7</v>
+      </c>
+      <c r="T37">
+        <v>8</v>
+      </c>
+      <c r="U37">
+        <v>20</v>
+      </c>
+      <c r="V37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>796</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>6</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <v>12</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+      <c r="L38">
+        <v>5</v>
+      </c>
+      <c r="M38">
+        <v>5</v>
+      </c>
+      <c r="N38">
+        <v>9</v>
+      </c>
+      <c r="O38">
+        <v>19</v>
+      </c>
+      <c r="P38">
+        <v>3</v>
+      </c>
+      <c r="Q38">
+        <v>4</v>
+      </c>
+      <c r="R38">
+        <v>6</v>
+      </c>
+      <c r="S38">
+        <v>4</v>
+      </c>
+      <c r="T38">
+        <v>8</v>
+      </c>
+      <c r="U38">
+        <v>20</v>
+      </c>
+      <c r="V38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>776</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>9</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39">
+        <v>13</v>
+      </c>
+      <c r="I39">
+        <v>6</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39">
+        <v>3</v>
+      </c>
+      <c r="L39">
+        <v>5</v>
+      </c>
+      <c r="M39">
+        <v>9</v>
+      </c>
+      <c r="N39">
+        <v>9</v>
+      </c>
+      <c r="O39">
+        <v>18</v>
+      </c>
+      <c r="P39">
+        <v>4</v>
+      </c>
+      <c r="Q39">
+        <v>4</v>
+      </c>
+      <c r="R39">
+        <v>6</v>
+      </c>
+      <c r="S39">
+        <v>7</v>
+      </c>
+      <c r="T39">
+        <v>8</v>
+      </c>
+      <c r="U39">
+        <v>19</v>
+      </c>
+      <c r="V39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>747</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>9</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>12</v>
+      </c>
+      <c r="I40">
+        <v>5</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40">
+        <v>3</v>
+      </c>
+      <c r="L40">
+        <v>5</v>
+      </c>
+      <c r="M40">
+        <v>8</v>
+      </c>
+      <c r="N40">
+        <v>9</v>
+      </c>
+      <c r="O40">
+        <v>18</v>
+      </c>
+      <c r="P40">
+        <v>3</v>
+      </c>
+      <c r="Q40">
+        <v>4</v>
+      </c>
+      <c r="R40">
+        <v>6</v>
+      </c>
+      <c r="S40">
+        <v>6</v>
+      </c>
+      <c r="T40">
+        <v>5</v>
+      </c>
+      <c r="U40">
+        <v>20</v>
+      </c>
+      <c r="V40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>709</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>9</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>12</v>
+      </c>
+      <c r="I41">
+        <v>5</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>3</v>
+      </c>
+      <c r="L41">
+        <v>5</v>
+      </c>
+      <c r="M41">
+        <v>8</v>
+      </c>
+      <c r="N41">
+        <v>9</v>
+      </c>
+      <c r="O41">
+        <v>18</v>
+      </c>
+      <c r="P41">
+        <v>3</v>
+      </c>
+      <c r="Q41">
+        <v>4</v>
+      </c>
+      <c r="R41">
+        <v>6</v>
+      </c>
+      <c r="S41">
+        <v>7</v>
+      </c>
+      <c r="T41">
+        <v>8</v>
+      </c>
+      <c r="U41">
+        <v>20</v>
+      </c>
+      <c r="V41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>698</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <v>12</v>
+      </c>
+      <c r="I42">
+        <v>9</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <v>3</v>
+      </c>
+      <c r="L42">
+        <v>5</v>
+      </c>
+      <c r="M42">
+        <v>8</v>
+      </c>
+      <c r="N42">
+        <v>9</v>
+      </c>
+      <c r="O42">
+        <v>17</v>
+      </c>
+      <c r="P42">
+        <v>4</v>
+      </c>
+      <c r="Q42">
+        <v>5</v>
+      </c>
+      <c r="R42">
+        <v>7</v>
+      </c>
+      <c r="S42">
+        <v>4</v>
+      </c>
+      <c r="T42">
+        <v>7</v>
+      </c>
+      <c r="U42">
+        <v>20</v>
+      </c>
+      <c r="V42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>670</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>9</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+      <c r="H43">
+        <v>12</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+      <c r="K43">
+        <v>3</v>
+      </c>
+      <c r="L43">
+        <v>5</v>
+      </c>
+      <c r="M43">
+        <v>8</v>
+      </c>
+      <c r="N43">
+        <v>9</v>
+      </c>
+      <c r="O43">
+        <v>18</v>
+      </c>
+      <c r="P43">
+        <v>3</v>
+      </c>
+      <c r="Q43">
+        <v>9</v>
+      </c>
+      <c r="R43">
+        <v>6</v>
+      </c>
+      <c r="S43">
+        <v>5</v>
+      </c>
+      <c r="T43">
+        <v>8</v>
+      </c>
+      <c r="U43">
+        <v>20</v>
+      </c>
+      <c r="V43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>653</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>9</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+      <c r="G44">
+        <v>5</v>
+      </c>
+      <c r="H44">
+        <v>10</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
+      <c r="J44">
+        <v>7</v>
+      </c>
+      <c r="K44">
+        <v>3</v>
+      </c>
+      <c r="L44">
+        <v>13</v>
+      </c>
+      <c r="M44">
+        <v>8</v>
+      </c>
+      <c r="N44">
+        <v>9</v>
+      </c>
+      <c r="O44">
+        <v>18</v>
+      </c>
+      <c r="P44">
+        <v>3</v>
+      </c>
+      <c r="Q44">
+        <v>4</v>
+      </c>
+      <c r="R44">
+        <v>6</v>
+      </c>
+      <c r="S44">
+        <v>7</v>
+      </c>
+      <c r="T44">
+        <v>8</v>
+      </c>
+      <c r="U44">
+        <v>20</v>
+      </c>
+      <c r="V44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>648</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>9</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+      <c r="H45">
+        <v>12</v>
+      </c>
+      <c r="I45">
+        <v>5</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+      <c r="K45">
+        <v>3</v>
+      </c>
+      <c r="L45">
+        <v>5</v>
+      </c>
+      <c r="M45">
+        <v>8</v>
+      </c>
+      <c r="N45">
+        <v>4</v>
+      </c>
+      <c r="O45">
+        <v>18</v>
+      </c>
+      <c r="P45">
+        <v>3</v>
+      </c>
+      <c r="Q45">
+        <v>4</v>
+      </c>
+      <c r="R45">
+        <v>6</v>
+      </c>
+      <c r="S45">
+        <v>7</v>
+      </c>
+      <c r="T45">
+        <v>7</v>
+      </c>
+      <c r="U45">
+        <v>7</v>
+      </c>
+      <c r="V45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>616</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>9</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <v>12</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <v>3</v>
+      </c>
+      <c r="L46">
+        <v>5</v>
+      </c>
+      <c r="M46">
+        <v>8</v>
+      </c>
+      <c r="N46">
+        <v>9</v>
+      </c>
+      <c r="O46">
+        <v>18</v>
+      </c>
+      <c r="P46">
+        <v>3</v>
+      </c>
+      <c r="Q46">
+        <v>4</v>
+      </c>
+      <c r="R46">
+        <v>6</v>
+      </c>
+      <c r="S46">
+        <v>7</v>
+      </c>
+      <c r="T46">
+        <v>8</v>
+      </c>
+      <c r="U46">
+        <v>20</v>
+      </c>
+      <c r="V46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>589</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>9</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="H47">
+        <v>12</v>
+      </c>
+      <c r="I47">
+        <v>5</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="K47">
+        <v>3</v>
+      </c>
+      <c r="L47">
+        <v>12</v>
+      </c>
+      <c r="M47">
+        <v>5</v>
+      </c>
+      <c r="N47">
+        <v>9</v>
+      </c>
+      <c r="O47">
+        <v>18</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>4</v>
+      </c>
+      <c r="R47">
+        <v>6</v>
+      </c>
+      <c r="S47">
+        <v>7</v>
+      </c>
+      <c r="T47">
+        <v>8</v>
+      </c>
+      <c r="U47">
+        <v>20</v>
+      </c>
+      <c r="V47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>532</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>6</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+      <c r="H48">
+        <v>10</v>
+      </c>
+      <c r="I48">
+        <v>6</v>
+      </c>
+      <c r="J48">
+        <v>3</v>
+      </c>
+      <c r="K48">
+        <v>4</v>
+      </c>
+      <c r="L48">
+        <v>6</v>
+      </c>
+      <c r="M48">
+        <v>6</v>
+      </c>
+      <c r="N48">
+        <v>8</v>
+      </c>
+      <c r="O48">
+        <v>8</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>8</v>
+      </c>
+      <c r="R48">
+        <v>9</v>
+      </c>
+      <c r="S48">
+        <v>5</v>
+      </c>
+      <c r="T48">
+        <v>15</v>
+      </c>
+      <c r="U48">
+        <v>6</v>
+      </c>
+      <c r="V48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>526</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>7</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49">
+        <v>4</v>
+      </c>
+      <c r="H49">
+        <v>17</v>
+      </c>
+      <c r="I49">
+        <v>7</v>
+      </c>
+      <c r="J49">
+        <v>5</v>
+      </c>
+      <c r="K49">
+        <v>3</v>
+      </c>
+      <c r="L49">
+        <v>7</v>
+      </c>
+      <c r="M49">
+        <v>8</v>
+      </c>
+      <c r="N49">
+        <v>5</v>
+      </c>
+      <c r="O49">
+        <v>9</v>
+      </c>
+      <c r="P49">
+        <v>3</v>
+      </c>
+      <c r="Q49">
+        <v>4</v>
+      </c>
+      <c r="R49">
+        <v>6</v>
+      </c>
+      <c r="S49">
+        <v>5</v>
+      </c>
+      <c r="T49">
+        <v>8</v>
+      </c>
+      <c r="U49">
+        <v>12</v>
+      </c>
+      <c r="V49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>522</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>9</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+      <c r="G50">
+        <v>4</v>
+      </c>
+      <c r="H50">
+        <v>12</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+      <c r="J50">
+        <v>2</v>
+      </c>
+      <c r="K50">
+        <v>3</v>
+      </c>
+      <c r="L50">
+        <v>5</v>
+      </c>
+      <c r="M50">
+        <v>8</v>
+      </c>
+      <c r="N50">
+        <v>9</v>
+      </c>
+      <c r="O50">
+        <v>18</v>
+      </c>
+      <c r="P50">
+        <v>3</v>
+      </c>
+      <c r="Q50">
+        <v>4</v>
+      </c>
+      <c r="R50">
+        <v>6</v>
+      </c>
+      <c r="S50">
+        <v>7</v>
+      </c>
+      <c r="T50">
+        <v>8</v>
+      </c>
+      <c r="U50">
+        <v>20</v>
+      </c>
+      <c r="V50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>516</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>9</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>4</v>
+      </c>
+      <c r="H51">
+        <v>6</v>
+      </c>
+      <c r="I51">
+        <v>5</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
+      <c r="K51">
+        <v>3</v>
+      </c>
+      <c r="L51">
+        <v>5</v>
+      </c>
+      <c r="M51">
+        <v>10</v>
+      </c>
+      <c r="N51">
+        <v>12</v>
+      </c>
+      <c r="O51">
+        <v>18</v>
+      </c>
+      <c r="P51">
+        <v>4</v>
+      </c>
+      <c r="Q51">
+        <v>11</v>
+      </c>
+      <c r="R51">
+        <v>12</v>
+      </c>
+      <c r="S51">
+        <v>3</v>
+      </c>
+      <c r="T51">
+        <v>8</v>
+      </c>
+      <c r="U51">
+        <v>7</v>
+      </c>
+      <c r="V51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>445</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>9</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="G52">
+        <v>4</v>
+      </c>
+      <c r="H52">
+        <v>12</v>
+      </c>
+      <c r="I52">
+        <v>5</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+      <c r="K52">
+        <v>7</v>
+      </c>
+      <c r="L52">
+        <v>5</v>
+      </c>
+      <c r="M52">
+        <v>4</v>
+      </c>
+      <c r="N52">
+        <v>9</v>
+      </c>
+      <c r="O52">
+        <v>18</v>
+      </c>
+      <c r="P52">
+        <v>3</v>
+      </c>
+      <c r="Q52">
+        <v>4</v>
+      </c>
+      <c r="R52">
+        <v>6</v>
+      </c>
+      <c r="S52">
+        <v>7</v>
+      </c>
+      <c r="T52">
+        <v>8</v>
+      </c>
+      <c r="U52">
+        <v>20</v>
+      </c>
+      <c r="V52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>440</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
+      <c r="H53">
+        <v>15</v>
+      </c>
+      <c r="I53">
+        <v>5</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <v>3</v>
+      </c>
+      <c r="L53">
+        <v>5</v>
+      </c>
+      <c r="M53">
+        <v>6</v>
+      </c>
+      <c r="N53">
+        <v>9</v>
+      </c>
+      <c r="O53">
+        <v>18</v>
+      </c>
+      <c r="P53">
+        <v>4</v>
+      </c>
+      <c r="Q53">
+        <v>4</v>
+      </c>
+      <c r="R53">
+        <v>6</v>
+      </c>
+      <c r="S53">
+        <v>7</v>
+      </c>
+      <c r="T53">
+        <v>8</v>
+      </c>
+      <c r="U53">
+        <v>20</v>
+      </c>
+      <c r="V53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>403</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>9</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
+      </c>
+      <c r="G54">
+        <v>4</v>
+      </c>
+      <c r="H54">
+        <v>6</v>
+      </c>
+      <c r="I54">
+        <v>5</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
+      </c>
+      <c r="K54">
+        <v>3</v>
+      </c>
+      <c r="L54">
+        <v>5</v>
+      </c>
+      <c r="M54">
+        <v>8</v>
+      </c>
+      <c r="N54">
+        <v>9</v>
+      </c>
+      <c r="O54">
+        <v>7</v>
+      </c>
+      <c r="P54">
+        <v>3</v>
+      </c>
+      <c r="Q54">
+        <v>4</v>
+      </c>
+      <c r="R54">
+        <v>6</v>
+      </c>
+      <c r="S54">
+        <v>7</v>
+      </c>
+      <c r="T54">
+        <v>8</v>
+      </c>
+      <c r="U54">
+        <v>20</v>
+      </c>
+      <c r="V54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>388</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>9</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+      <c r="H55">
+        <v>12</v>
+      </c>
+      <c r="I55">
+        <v>8</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
+      </c>
+      <c r="K55">
+        <v>7</v>
+      </c>
+      <c r="L55">
+        <v>5</v>
+      </c>
+      <c r="M55">
+        <v>8</v>
+      </c>
+      <c r="N55">
+        <v>9</v>
+      </c>
+      <c r="O55">
+        <v>18</v>
+      </c>
+      <c r="P55">
+        <v>3</v>
+      </c>
+      <c r="Q55">
+        <v>4</v>
+      </c>
+      <c r="R55">
+        <v>6</v>
+      </c>
+      <c r="S55">
+        <v>7</v>
+      </c>
+      <c r="T55">
+        <v>8</v>
+      </c>
+      <c r="U55">
+        <v>20</v>
+      </c>
+      <c r="V55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>381</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>9</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
+      <c r="G56">
+        <v>4</v>
+      </c>
+      <c r="H56">
+        <v>17</v>
+      </c>
+      <c r="I56">
+        <v>5</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>5</v>
+      </c>
+      <c r="M56">
+        <v>8</v>
+      </c>
+      <c r="N56">
+        <v>9</v>
+      </c>
+      <c r="O56">
+        <v>18</v>
+      </c>
+      <c r="P56">
+        <v>2</v>
+      </c>
+      <c r="Q56">
+        <v>7</v>
+      </c>
+      <c r="R56">
+        <v>6</v>
+      </c>
+      <c r="S56">
+        <v>4</v>
+      </c>
+      <c r="T56">
+        <v>8</v>
+      </c>
+      <c r="U56">
+        <v>19</v>
+      </c>
+      <c r="V56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>363</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>10</v>
+      </c>
+      <c r="F57">
+        <v>4</v>
+      </c>
+      <c r="G57">
+        <v>4</v>
+      </c>
+      <c r="H57">
+        <v>6</v>
+      </c>
+      <c r="I57">
+        <v>5</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+      <c r="K57">
+        <v>3</v>
+      </c>
+      <c r="L57">
+        <v>5</v>
+      </c>
+      <c r="M57">
+        <v>8</v>
+      </c>
+      <c r="N57">
+        <v>9</v>
+      </c>
+      <c r="O57">
+        <v>18</v>
+      </c>
+      <c r="P57">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>4</v>
+      </c>
+      <c r="R57">
+        <v>6</v>
+      </c>
+      <c r="S57">
+        <v>5</v>
+      </c>
+      <c r="T57">
+        <v>7</v>
+      </c>
+      <c r="U57">
+        <v>13</v>
+      </c>
+      <c r="V57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>324</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>9</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+      <c r="G58">
+        <v>4</v>
+      </c>
+      <c r="H58">
+        <v>8</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
+      <c r="J58">
+        <v>2</v>
+      </c>
+      <c r="K58">
+        <v>3</v>
+      </c>
+      <c r="L58">
+        <v>5</v>
+      </c>
+      <c r="M58">
+        <v>8</v>
+      </c>
+      <c r="N58">
+        <v>8</v>
+      </c>
+      <c r="O58">
+        <v>18</v>
+      </c>
+      <c r="P58">
+        <v>3</v>
+      </c>
+      <c r="Q58">
+        <v>4</v>
+      </c>
+      <c r="R58">
+        <v>6</v>
+      </c>
+      <c r="S58">
+        <v>7</v>
+      </c>
+      <c r="T58">
+        <v>8</v>
+      </c>
+      <c r="U58">
+        <v>20</v>
+      </c>
+      <c r="V58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>287</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+      <c r="G59">
+        <v>4</v>
+      </c>
+      <c r="H59">
+        <v>5</v>
+      </c>
+      <c r="I59">
+        <v>5</v>
+      </c>
+      <c r="J59">
+        <v>6</v>
+      </c>
+      <c r="K59">
+        <v>8</v>
+      </c>
+      <c r="L59">
+        <v>5</v>
+      </c>
+      <c r="M59">
+        <v>8</v>
+      </c>
+      <c r="N59">
+        <v>9</v>
+      </c>
+      <c r="O59">
+        <v>8</v>
+      </c>
+      <c r="P59">
+        <v>3</v>
+      </c>
+      <c r="Q59">
+        <v>4</v>
+      </c>
+      <c r="R59">
+        <v>9</v>
+      </c>
+      <c r="S59">
+        <v>3</v>
+      </c>
+      <c r="T59">
+        <v>19</v>
+      </c>
+      <c r="U59">
+        <v>6</v>
+      </c>
+      <c r="V59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>278</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>9</v>
+      </c>
+      <c r="F60">
+        <v>4</v>
+      </c>
+      <c r="G60">
+        <v>4</v>
+      </c>
+      <c r="H60">
+        <v>12</v>
+      </c>
+      <c r="I60">
+        <v>5</v>
+      </c>
+      <c r="J60">
+        <v>2</v>
+      </c>
+      <c r="K60">
+        <v>3</v>
+      </c>
+      <c r="L60">
+        <v>5</v>
+      </c>
+      <c r="M60">
+        <v>8</v>
+      </c>
+      <c r="N60">
+        <v>9</v>
+      </c>
+      <c r="O60">
+        <v>18</v>
+      </c>
+      <c r="P60">
+        <v>3</v>
+      </c>
+      <c r="Q60">
+        <v>4</v>
+      </c>
+      <c r="R60">
+        <v>6</v>
+      </c>
+      <c r="S60">
+        <v>7</v>
+      </c>
+      <c r="T60">
+        <v>8</v>
+      </c>
+      <c r="U60">
+        <v>20</v>
+      </c>
+      <c r="V60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>220</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <v>9</v>
+      </c>
+      <c r="F61">
+        <v>4</v>
+      </c>
+      <c r="G61">
+        <v>4</v>
+      </c>
+      <c r="H61">
+        <v>12</v>
+      </c>
+      <c r="I61">
+        <v>5</v>
+      </c>
+      <c r="J61">
+        <v>3</v>
+      </c>
+      <c r="K61">
+        <v>3</v>
+      </c>
+      <c r="L61">
+        <v>5</v>
+      </c>
+      <c r="M61">
+        <v>8</v>
+      </c>
+      <c r="N61">
+        <v>9</v>
+      </c>
+      <c r="O61">
+        <v>18</v>
+      </c>
+      <c r="P61">
+        <v>3</v>
+      </c>
+      <c r="Q61">
+        <v>11</v>
+      </c>
+      <c r="R61">
+        <v>6</v>
+      </c>
+      <c r="S61">
+        <v>7</v>
+      </c>
+      <c r="T61">
+        <v>15</v>
+      </c>
+      <c r="U61">
+        <v>20</v>
+      </c>
+      <c r="V61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>155</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>9</v>
+      </c>
+      <c r="F62">
+        <v>4</v>
+      </c>
+      <c r="G62">
+        <v>4</v>
+      </c>
+      <c r="H62">
+        <v>12</v>
+      </c>
+      <c r="I62">
+        <v>5</v>
+      </c>
+      <c r="J62">
+        <v>6</v>
+      </c>
+      <c r="K62">
+        <v>3</v>
+      </c>
+      <c r="L62">
+        <v>5</v>
+      </c>
+      <c r="M62">
+        <v>8</v>
+      </c>
+      <c r="N62">
+        <v>9</v>
+      </c>
+      <c r="O62">
+        <v>9</v>
+      </c>
+      <c r="P62">
+        <v>3</v>
+      </c>
+      <c r="Q62">
+        <v>4</v>
+      </c>
+      <c r="R62">
+        <v>8</v>
+      </c>
+      <c r="S62">
+        <v>7</v>
+      </c>
+      <c r="T62">
+        <v>8</v>
+      </c>
+      <c r="U62">
+        <v>12</v>
+      </c>
+      <c r="V62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>121</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63">
+        <v>9</v>
+      </c>
+      <c r="F63">
+        <v>4</v>
+      </c>
+      <c r="G63">
+        <v>4</v>
+      </c>
+      <c r="H63">
+        <v>12</v>
+      </c>
+      <c r="I63">
+        <v>5</v>
+      </c>
+      <c r="J63">
+        <v>6</v>
+      </c>
+      <c r="K63">
+        <v>3</v>
+      </c>
+      <c r="L63">
+        <v>5</v>
+      </c>
+      <c r="M63">
+        <v>8</v>
+      </c>
+      <c r="N63">
+        <v>9</v>
+      </c>
+      <c r="O63">
+        <v>9</v>
+      </c>
+      <c r="P63">
+        <v>3</v>
+      </c>
+      <c r="Q63">
+        <v>4</v>
+      </c>
+      <c r="R63">
+        <v>6</v>
+      </c>
+      <c r="S63">
+        <v>7</v>
+      </c>
+      <c r="T63">
+        <v>8</v>
+      </c>
+      <c r="U63">
+        <v>12</v>
+      </c>
+      <c r="V63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>71</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>9</v>
+      </c>
+      <c r="F64">
+        <v>4</v>
+      </c>
+      <c r="G64">
+        <v>4</v>
+      </c>
+      <c r="H64">
+        <v>14</v>
+      </c>
+      <c r="I64">
+        <v>5</v>
+      </c>
+      <c r="J64">
+        <v>3</v>
+      </c>
+      <c r="K64">
+        <v>8</v>
+      </c>
+      <c r="L64">
+        <v>5</v>
+      </c>
+      <c r="M64">
+        <v>8</v>
+      </c>
+      <c r="N64">
+        <v>15</v>
+      </c>
+      <c r="O64">
+        <v>18</v>
+      </c>
+      <c r="P64">
+        <v>3</v>
+      </c>
+      <c r="Q64">
+        <v>9</v>
+      </c>
+      <c r="R64">
+        <v>5</v>
+      </c>
+      <c r="S64">
+        <v>2</v>
+      </c>
+      <c r="T64">
+        <v>8</v>
+      </c>
+      <c r="U64">
+        <v>7</v>
+      </c>
+      <c r="V64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>55</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>9</v>
+      </c>
+      <c r="F65">
+        <v>4</v>
+      </c>
+      <c r="G65">
+        <v>4</v>
+      </c>
+      <c r="H65">
+        <v>12</v>
+      </c>
+      <c r="I65">
+        <v>13</v>
+      </c>
+      <c r="J65">
+        <v>2</v>
+      </c>
+      <c r="K65">
+        <v>3</v>
+      </c>
+      <c r="L65">
+        <v>5</v>
+      </c>
+      <c r="M65">
+        <v>4</v>
+      </c>
+      <c r="N65">
+        <v>9</v>
+      </c>
+      <c r="O65">
+        <v>18</v>
+      </c>
+      <c r="P65">
+        <v>3</v>
+      </c>
+      <c r="Q65">
+        <v>4</v>
+      </c>
+      <c r="R65">
+        <v>7</v>
+      </c>
+      <c r="S65">
+        <v>7</v>
+      </c>
+      <c r="T65">
+        <v>8</v>
+      </c>
+      <c r="U65">
+        <v>20</v>
+      </c>
+      <c r="V65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>53</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>6</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>6</v>
+      </c>
+      <c r="F66">
+        <v>5</v>
+      </c>
+      <c r="G66">
+        <v>4</v>
+      </c>
+      <c r="H66">
+        <v>18</v>
+      </c>
+      <c r="I66">
+        <v>8</v>
+      </c>
+      <c r="J66">
+        <v>3</v>
+      </c>
+      <c r="K66">
+        <v>5</v>
+      </c>
+      <c r="L66">
+        <v>7</v>
+      </c>
+      <c r="M66">
+        <v>8</v>
+      </c>
+      <c r="N66">
+        <v>12</v>
+      </c>
+      <c r="O66">
+        <v>21</v>
+      </c>
+      <c r="P66">
+        <v>2</v>
+      </c>
+      <c r="Q66">
+        <v>13</v>
+      </c>
+      <c r="R66">
+        <v>8</v>
+      </c>
+      <c r="S66">
+        <v>6</v>
+      </c>
+      <c r="T66">
+        <v>4</v>
+      </c>
+      <c r="U66">
+        <v>5</v>
+      </c>
+      <c r="V66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" s="5">
+        <f>AVERAGE(B36:B66)</f>
+        <v>3.6129032258064515</v>
+      </c>
+      <c r="C67" s="5">
+        <f t="shared" ref="C67:U67" si="2">AVERAGE(C36:C66)</f>
+        <v>4.709677419354839</v>
+      </c>
+      <c r="D67" s="5">
+        <f t="shared" si="2"/>
+        <v>1.7419354838709677</v>
+      </c>
+      <c r="E67" s="5">
+        <f t="shared" si="2"/>
+        <v>8.32258064516129</v>
+      </c>
+      <c r="F67" s="5">
+        <f t="shared" si="2"/>
+        <v>4.032258064516129</v>
+      </c>
+      <c r="G67" s="5">
+        <f t="shared" si="2"/>
+        <v>3.935483870967742</v>
+      </c>
+      <c r="H67" s="5">
+        <f t="shared" si="2"/>
+        <v>11.516129032258064</v>
+      </c>
+      <c r="I67" s="5">
+        <f t="shared" si="2"/>
+        <v>5.709677419354839</v>
+      </c>
+      <c r="J67" s="5">
+        <f t="shared" si="2"/>
+        <v>2.903225806451613</v>
+      </c>
+      <c r="K67" s="5">
+        <f t="shared" si="2"/>
+        <v>3.6451612903225805</v>
+      </c>
+      <c r="L67" s="5">
+        <f t="shared" si="2"/>
+        <v>5.645161290322581</v>
+      </c>
+      <c r="M67" s="5">
+        <f t="shared" si="2"/>
+        <v>7.5161290322580649</v>
+      </c>
+      <c r="N67" s="5">
+        <f t="shared" si="2"/>
+        <v>9.0967741935483879</v>
+      </c>
+      <c r="O67" s="5">
+        <f t="shared" si="2"/>
+        <v>16.225806451612904</v>
+      </c>
+      <c r="P67" s="5">
+        <f t="shared" si="2"/>
+        <v>2.870967741935484</v>
+      </c>
+      <c r="Q67" s="5">
+        <f t="shared" si="2"/>
+        <v>5.4516129032258061</v>
+      </c>
+      <c r="R67" s="5">
+        <f t="shared" si="2"/>
+        <v>6.5483870967741939</v>
+      </c>
+      <c r="S67" s="5">
+        <f t="shared" si="2"/>
+        <v>5.967741935483871</v>
+      </c>
+      <c r="T67" s="5">
+        <f t="shared" si="2"/>
+        <v>8.4838709677419359</v>
+      </c>
+      <c r="U67" s="5">
+        <f t="shared" si="2"/>
+        <v>16.29032258064516</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>34</v>
+      </c>
+      <c r="V72" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73">
+        <f>M3</f>
+        <v>3.6</v>
+      </c>
+      <c r="C73">
+        <f>M4</f>
+        <v>4.3</v>
+      </c>
+      <c r="D73">
+        <f>M5</f>
         <v>2.1</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23">
-        <v>11</v>
-      </c>
-      <c r="D23">
-        <v>7</v>
-      </c>
-      <c r="E23">
-        <v>9</v>
-      </c>
-      <c r="F23">
-        <v>8</v>
-      </c>
-      <c r="G23">
-        <v>7</v>
-      </c>
-      <c r="H23">
-        <v>13</v>
-      </c>
-      <c r="I23">
-        <v>10</v>
-      </c>
-      <c r="J23">
-        <v>12</v>
-      </c>
-      <c r="K23">
-        <v>13</v>
-      </c>
-      <c r="L23">
-        <v>6</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="0"/>
+      <c r="E73">
+        <f>M6</f>
+        <v>3.4</v>
+      </c>
+      <c r="F73">
+        <f>M7</f>
+        <v>6.8</v>
+      </c>
+      <c r="G73">
+        <f>M8</f>
+        <v>3.5</v>
+      </c>
+      <c r="H73">
+        <f>M9</f>
+        <v>8.4</v>
+      </c>
+      <c r="I73">
+        <f>M10</f>
+        <v>12.1</v>
+      </c>
+      <c r="J73">
+        <f>M11</f>
+        <v>3.7</v>
+      </c>
+      <c r="K73">
+        <f>M12</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L73">
+        <f>M13</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M73">
+        <f>M14</f>
+        <v>8.4</v>
+      </c>
+      <c r="N73">
+        <f>M15</f>
+        <v>15.1</v>
+      </c>
+      <c r="O73">
+        <f>M16</f>
+        <v>8.4</v>
+      </c>
+      <c r="P73">
+        <f>M17</f>
+        <v>2.1</v>
+      </c>
+      <c r="Q73">
+        <f>M18</f>
         <v>9.6</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24">
-        <v>4</v>
-      </c>
-      <c r="D24">
-        <v>6</v>
-      </c>
-      <c r="E24">
-        <v>7</v>
-      </c>
-      <c r="F24">
-        <v>12</v>
-      </c>
-      <c r="G24">
-        <v>6</v>
-      </c>
-      <c r="H24">
-        <v>11</v>
-      </c>
-      <c r="I24">
-        <v>13</v>
-      </c>
-      <c r="J24">
-        <v>4</v>
-      </c>
-      <c r="K24">
-        <v>6</v>
-      </c>
-      <c r="L24">
-        <v>4</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="0"/>
+      <c r="R73">
+        <f>M19</f>
         <v>7.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" t="s">
-        <v>14</v>
-      </c>
-      <c r="K25" t="s">
-        <v>14</v>
-      </c>
-      <c r="L25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26">
-        <v>5</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26">
-        <v>7</v>
-      </c>
-      <c r="F26">
-        <v>4</v>
-      </c>
-      <c r="G26">
-        <v>5</v>
-      </c>
-      <c r="H26">
-        <v>6</v>
-      </c>
-      <c r="I26">
-        <v>7</v>
-      </c>
-      <c r="J26">
-        <v>5</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>7</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="0"/>
+      <c r="S73">
+        <f>M20</f>
         <v>5.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27">
-        <v>10</v>
-      </c>
-      <c r="D27">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>19</v>
-      </c>
-      <c r="F27">
-        <v>15</v>
-      </c>
-      <c r="G27">
-        <v>16</v>
-      </c>
-      <c r="H27">
-        <v>16</v>
-      </c>
-      <c r="I27">
-        <v>22</v>
-      </c>
-      <c r="J27">
-        <v>5</v>
-      </c>
-      <c r="K27">
-        <v>9</v>
-      </c>
-      <c r="L27">
-        <v>20</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="0"/>
+      <c r="T73">
+        <f>M21</f>
         <v>15.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28">
-        <v>23</v>
-      </c>
-      <c r="D28">
-        <v>10</v>
-      </c>
-      <c r="E28">
-        <v>14</v>
-      </c>
-      <c r="F28">
-        <v>12</v>
-      </c>
-      <c r="G28">
-        <v>20</v>
-      </c>
-      <c r="H28">
-        <v>14</v>
-      </c>
-      <c r="I28">
-        <v>7</v>
-      </c>
-      <c r="J28">
-        <v>19</v>
-      </c>
-      <c r="K28">
-        <v>5</v>
-      </c>
-      <c r="L28">
-        <v>8</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="0"/>
+      <c r="U73">
+        <f>M22</f>
         <v>13.2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" t="s">
-        <v>7</v>
-      </c>
-      <c r="H29" t="s">
-        <v>7</v>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74">
+        <f>B34</f>
+        <v>3.4</v>
+      </c>
+      <c r="C74">
+        <f t="shared" ref="C74:U74" si="3">C34</f>
+        <v>4.8</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="3"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="3"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="3"/>
+        <v>12.8</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="3"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="3"/>
+        <v>3.4</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="3"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="3"/>
+        <v>10.8</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="3"/>
+        <v>15.4</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="3"/>
+        <v>5.2</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="3"/>
+        <v>6.2</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="3"/>
+        <v>9.6</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="3"/>
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75">
+        <f>ABS(B73-B74)</f>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="C75">
+        <f>ABS(C73-C74)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D75">
+        <f>ABS(D73-D74)</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="E75">
+        <f>ABS(E73-E74)</f>
+        <v>5.6</v>
+      </c>
+      <c r="F75">
+        <f t="shared" ref="F75:U75" si="4">ABS(F73-F74)</f>
+        <v>2.8</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="4"/>
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="4"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="4"/>
+        <v>7.1</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="4"/>
+        <v>0.89999999999999947</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="4"/>
+        <v>4.7999999999999989</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="4"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="4"/>
+        <v>0.20000000000000107</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="4"/>
+        <v>4.2999999999999989</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="4"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="4"/>
+        <v>4.3999999999999995</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="4"/>
+        <v>1.0999999999999996</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="4"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="4"/>
+        <v>5.6</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="4"/>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="V75">
+        <f>SUM(B75:U75)</f>
+        <v>55.599999999999994</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>29</v>
+      </c>
+      <c r="B76" s="5">
+        <f>B67</f>
+        <v>3.6129032258064515</v>
+      </c>
+      <c r="C76" s="5">
+        <f t="shared" ref="C76:U76" si="5">C67</f>
+        <v>4.709677419354839</v>
+      </c>
+      <c r="D76" s="5">
+        <f t="shared" si="5"/>
+        <v>1.7419354838709677</v>
+      </c>
+      <c r="E76" s="5">
+        <f t="shared" si="5"/>
+        <v>8.32258064516129</v>
+      </c>
+      <c r="F76" s="5">
+        <f t="shared" si="5"/>
+        <v>4.032258064516129</v>
+      </c>
+      <c r="G76" s="5">
+        <f t="shared" si="5"/>
+        <v>3.935483870967742</v>
+      </c>
+      <c r="H76" s="5">
+        <f t="shared" si="5"/>
+        <v>11.516129032258064</v>
+      </c>
+      <c r="I76" s="5">
+        <f t="shared" si="5"/>
+        <v>5.709677419354839</v>
+      </c>
+      <c r="J76" s="5">
+        <f t="shared" si="5"/>
+        <v>2.903225806451613</v>
+      </c>
+      <c r="K76" s="5">
+        <f t="shared" si="5"/>
+        <v>3.6451612903225805</v>
+      </c>
+      <c r="L76" s="5">
+        <f t="shared" si="5"/>
+        <v>5.645161290322581</v>
+      </c>
+      <c r="M76" s="5">
+        <f t="shared" si="5"/>
+        <v>7.5161290322580649</v>
+      </c>
+      <c r="N76" s="5">
+        <f t="shared" si="5"/>
+        <v>9.0967741935483879</v>
+      </c>
+      <c r="O76" s="5">
+        <f t="shared" si="5"/>
+        <v>16.225806451612904</v>
+      </c>
+      <c r="P76" s="5">
+        <f t="shared" si="5"/>
+        <v>2.870967741935484</v>
+      </c>
+      <c r="Q76" s="5">
+        <f t="shared" si="5"/>
+        <v>5.4516129032258061</v>
+      </c>
+      <c r="R76" s="5">
+        <f t="shared" si="5"/>
+        <v>6.5483870967741939</v>
+      </c>
+      <c r="S76" s="5">
+        <f t="shared" si="5"/>
+        <v>5.967741935483871</v>
+      </c>
+      <c r="T76" s="5">
+        <f t="shared" si="5"/>
+        <v>8.4838709677419359</v>
+      </c>
+      <c r="U76" s="5">
+        <f t="shared" si="5"/>
+        <v>16.29032258064516</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>32</v>
+      </c>
+      <c r="B77" s="5">
+        <f>ABS(B76-B73)</f>
+        <v>1.2903225806451424E-2</v>
+      </c>
+      <c r="C77" s="5">
+        <f t="shared" ref="C77:U77" si="6">ABS(C76-C73)</f>
+        <v>0.40967741935483915</v>
+      </c>
+      <c r="D77" s="5">
+        <f t="shared" si="6"/>
+        <v>0.35806451612903234</v>
+      </c>
+      <c r="E77" s="5">
+        <f t="shared" si="6"/>
+        <v>4.9225806451612897</v>
+      </c>
+      <c r="F77" s="5">
+        <f t="shared" si="6"/>
+        <v>2.7677419354838708</v>
+      </c>
+      <c r="G77" s="5">
+        <f t="shared" si="6"/>
+        <v>0.43548387096774199</v>
+      </c>
+      <c r="H77" s="5">
+        <f t="shared" si="6"/>
+        <v>3.1161290322580637</v>
+      </c>
+      <c r="I77" s="5">
+        <f t="shared" si="6"/>
+        <v>6.3903225806451607</v>
+      </c>
+      <c r="J77" s="5">
+        <f t="shared" si="6"/>
+        <v>0.79677419354838719</v>
+      </c>
+      <c r="K77" s="5">
+        <f t="shared" si="6"/>
+        <v>4.5548387096774192</v>
+      </c>
+      <c r="L77" s="5">
+        <f t="shared" si="6"/>
+        <v>1.2451612903225806</v>
+      </c>
+      <c r="M77" s="5">
+        <f t="shared" si="6"/>
+        <v>0.88387096774193541</v>
+      </c>
+      <c r="N77" s="5">
+        <f t="shared" si="6"/>
+        <v>6.0032258064516117</v>
+      </c>
+      <c r="O77" s="5">
+        <f t="shared" si="6"/>
+        <v>7.8258064516129036</v>
+      </c>
+      <c r="P77" s="5">
+        <f t="shared" si="6"/>
+        <v>0.7709677419354839</v>
+      </c>
+      <c r="Q77" s="5">
+        <f t="shared" si="6"/>
+        <v>4.1483870967741936</v>
+      </c>
+      <c r="R77" s="5">
+        <f t="shared" si="6"/>
+        <v>0.75161290322580587</v>
+      </c>
+      <c r="S77" s="5">
+        <f t="shared" si="6"/>
+        <v>0.76774193548387082</v>
+      </c>
+      <c r="T77" s="5">
+        <f t="shared" si="6"/>
+        <v>6.7161290322580633</v>
+      </c>
+      <c r="U77" s="5">
+        <f t="shared" si="6"/>
+        <v>3.0903225806451609</v>
+      </c>
+      <c r="V77" s="5">
+        <f t="shared" ref="V77:V78" si="7">SUM(B77:U77)</f>
+        <v>55.967741935483872</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>35</v>
+      </c>
+      <c r="B78" s="5">
+        <f>ABS(B74-B76)</f>
+        <v>0.2129032258064516</v>
+      </c>
+      <c r="C78" s="5">
+        <f t="shared" ref="C78:U78" si="8">ABS(C74-C76)</f>
+        <v>9.0322580645160855E-2</v>
+      </c>
+      <c r="D78" s="5">
+        <f t="shared" si="8"/>
+        <v>0.45806451612903243</v>
+      </c>
+      <c r="E78" s="5">
+        <f t="shared" si="8"/>
+        <v>0.67741935483870996</v>
+      </c>
+      <c r="F78" s="5">
+        <f t="shared" si="8"/>
+        <v>3.2258064516129004E-2</v>
+      </c>
+      <c r="G78" s="5">
+        <f t="shared" si="8"/>
+        <v>0.46451612903225836</v>
+      </c>
+      <c r="H78" s="5">
+        <f t="shared" si="8"/>
+        <v>1.2838709677419367</v>
+      </c>
+      <c r="I78" s="5">
+        <f t="shared" si="8"/>
+        <v>0.70967741935483897</v>
+      </c>
+      <c r="J78" s="5">
+        <f t="shared" si="8"/>
+        <v>1.6967741935483867</v>
+      </c>
+      <c r="K78" s="5">
+        <f t="shared" si="8"/>
+        <v>0.24516129032258061</v>
+      </c>
+      <c r="L78" s="5">
+        <f t="shared" si="8"/>
+        <v>0.64516129032258096</v>
+      </c>
+      <c r="M78" s="5">
+        <f t="shared" si="8"/>
+        <v>0.68387096774193434</v>
+      </c>
+      <c r="N78" s="5">
+        <f t="shared" si="8"/>
+        <v>1.7032258064516128</v>
+      </c>
+      <c r="O78" s="5">
+        <f t="shared" si="8"/>
+        <v>0.82580645161290356</v>
+      </c>
+      <c r="P78" s="5">
+        <f t="shared" si="8"/>
+        <v>0.12903225806451601</v>
+      </c>
+      <c r="Q78" s="5">
+        <f t="shared" si="8"/>
+        <v>0.25161290322580587</v>
+      </c>
+      <c r="R78" s="5">
+        <f t="shared" si="8"/>
+        <v>0.34838709677419377</v>
+      </c>
+      <c r="S78" s="5">
+        <f t="shared" si="8"/>
+        <v>1.032258064516129</v>
+      </c>
+      <c r="T78" s="5">
+        <f t="shared" si="8"/>
+        <v>1.1161290322580637</v>
+      </c>
+      <c r="U78" s="5">
+        <f t="shared" si="8"/>
+        <v>0.6903225806451605</v>
+      </c>
+      <c r="V78" s="5">
+        <f t="shared" si="7"/>
+        <v>13.296774193548384</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A26:A28"/>
+  <mergeCells count="9">
+    <mergeCell ref="A28:V28"/>
+    <mergeCell ref="A35:V35"/>
+    <mergeCell ref="A20:A22"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A17:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
